--- a/metadatos.xlsx
+++ b/metadatos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\OneDrive\Escritorio\TFG\mio\metadatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\OneDrive\Escritorio\TFG\repos\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2F539-AA23-4C5E-B373-06BB6AF6B189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F56544B-8104-49BF-8875-0059588A9993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FBC1383-DF30-4860-A814-5DF9E39F5EEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
   <si>
     <t>Fichero</t>
   </si>
@@ -179,45 +179,9 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>ordering</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>attributes</t>
-  </si>
-  <si>
-    <t>isOriginalTitle</t>
-  </si>
-  <si>
-    <t>titleId</t>
-  </si>
-  <si>
-    <t>tconst de la película o serie en IMDB</t>
-  </si>
-  <si>
-    <t>numero identificar idiomas</t>
-  </si>
-  <si>
     <t>\N</t>
   </si>
   <si>
-    <t>imdbDisplay</t>
-  </si>
-  <si>
-    <t>título película o serie</t>
-  </si>
-  <si>
     <t>id de la película o serie en IMDB</t>
   </si>
   <si>
@@ -275,30 +239,6 @@
     <t>puntuación media de Imdb</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>indica si es el título original o no</t>
-  </si>
-  <si>
-    <t>terminos adicionales sobre el título</t>
-  </si>
-  <si>
-    <t>Indica el tipo (original, dvd, imdbDisplay)</t>
-  </si>
-  <si>
-    <t>lenguaje del título</t>
-  </si>
-  <si>
-    <t>región de la versión del título</t>
-  </si>
-  <si>
-    <t>title.akas.tsv</t>
-  </si>
-  <si>
     <t>directors</t>
   </si>
   <si>
@@ -468,9 +408,6 @@
   </si>
   <si>
     <t>Ficheros</t>
-  </si>
-  <si>
-    <t>De momento no lo pongo title.akas me quedo con los lenguajes que ya tengo</t>
   </si>
   <si>
     <t>languajes</t>
@@ -512,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,18 +460,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -709,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -743,11 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,7 +693,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="28">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -934,102 +854,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1294,25 +1118,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{65E833EE-AEA3-45F3-B4CC-E18DD213A1C1}" name="Tabla8" displayName="Tabla8" ref="B50:E63" totalsRowShown="0" headerRowBorderDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="B50:E63" xr:uid="{65E833EE-AEA3-45F3-B4CC-E18DD213A1C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{65E833EE-AEA3-45F3-B4CC-E18DD213A1C1}" name="Tabla8" displayName="Tabla8" ref="B38:E51" totalsRowShown="0" headerRowBorderDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B38:E51" xr:uid="{65E833EE-AEA3-45F3-B4CC-E18DD213A1C1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B502754C-BEF4-4C68-B4CA-690A5F1FA326}" name="Nombre columnas" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{30C405B9-7300-4FDC-B32E-FFC526DDE0B0}" name="Tipo datos" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{F26BCB7B-57FD-4EDD-AAC8-14217252703B}" name="Descripción " dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{64227499-149C-4BB5-872A-EBF72B605BEE}" name="Ejemplo" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{B502754C-BEF4-4C68-B4CA-690A5F1FA326}" name="Nombre columnas" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{30C405B9-7300-4FDC-B32E-FFC526DDE0B0}" name="Tipo datos" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F26BCB7B-57FD-4EDD-AAC8-14217252703B}" name="Descripción " dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{64227499-149C-4BB5-872A-EBF72B605BEE}" name="Ejemplo" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{674EF026-C088-4FAA-80B2-527F8A4C0E63}" name="Tabla9" displayName="Tabla9" ref="B43:E47" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="B43:E47" xr:uid="{674EF026-C088-4FAA-80B2-527F8A4C0E63}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{674EF026-C088-4FAA-80B2-527F8A4C0E63}" name="Tabla9" displayName="Tabla9" ref="B31:E35" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="B31:E35" xr:uid="{674EF026-C088-4FAA-80B2-527F8A4C0E63}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{756E4801-8943-49E1-B7E7-788FCADEA906}" name="Nombre columnas" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{9D85AE8B-0290-4952-A85E-BCD86B99182A}" name="Tipo datos" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{5430232E-D0B6-4C06-9AC3-43A1684799A0}" name="Descripción " dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{756E4801-8943-49E1-B7E7-788FCADEA906}" name="Nombre columnas" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9D85AE8B-0290-4952-A85E-BCD86B99182A}" name="Tipo datos" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5430232E-D0B6-4C06-9AC3-43A1684799A0}" name="Descripción " dataDxfId="17"/>
     <tableColumn id="4" xr3:uid="{7085E483-381A-48A9-ABE3-513C449DEAFD}" name="Ejemplo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1320,32 +1144,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{800BBEA4-4032-468C-B268-00EE7F9ECF5D}" name="Tabla10" displayName="Tabla10" ref="B66:E72" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="B66:E72" xr:uid="{800BBEA4-4032-468C-B268-00EE7F9ECF5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{800BBEA4-4032-468C-B268-00EE7F9ECF5D}" name="Tabla10" displayName="Tabla10" ref="B54:E60" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B54:E60" xr:uid="{800BBEA4-4032-468C-B268-00EE7F9ECF5D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6BD4E4E-40A2-4E3D-A74B-638868B36AAB}" name="Nombre columnas" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{FC0B0964-EF91-4030-9F61-9F9DAC9D3EDD}" name="Tipo datos" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{2DA0A8B9-6068-4316-98EE-72F9A7567255}" name="Descripción " dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{11E718CA-C371-43DA-AD29-92A9DC230EC8}" name="Ejemplo" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E6BD4E4E-40A2-4E3D-A74B-638868B36AAB}" name="Nombre columnas" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{FC0B0964-EF91-4030-9F61-9F9DAC9D3EDD}" name="Tipo datos" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2DA0A8B9-6068-4316-98EE-72F9A7567255}" name="Descripción " dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{11E718CA-C371-43DA-AD29-92A9DC230EC8}" name="Ejemplo" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{552F35EE-063B-42B0-92A6-DAF4647D7A9D}" name="Tabla11" displayName="Tabla11" ref="B31:E40" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="B31:E40" xr:uid="{552F35EE-063B-42B0-92A6-DAF4647D7A9D}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{02CD17AD-FA57-4C2E-9E52-99F1F16750F0}" name="Nombre columnas" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EB9D708D-08DC-499F-9768-C3EE4EEE1D60}" name="Tipo datos" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{6F545997-3C4D-40FC-A533-8ED4A2B713FB}" name="Descripción " dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{2F863288-6852-42A3-8757-C0F9094FCAC8}" name="Ejemplo" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4DDDBAAA-7CC9-4328-8DA7-E1D06B47638F}" name="Tabla12" displayName="Tabla12" ref="B24:E28" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B24:E28" xr:uid="{4DDDBAAA-7CC9-4328-8DA7-E1D06B47638F}"/>
   <tableColumns count="4">
@@ -1358,7 +1169,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{E10A9CC4-D6E1-4AF9-96EA-CDC2AFFE505A}" name="Tabla13" displayName="Tabla13" ref="B1:E20" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B1:E20" xr:uid="{E10A9CC4-D6E1-4AF9-96EA-CDC2AFFE505A}"/>
   <tableColumns count="4">
@@ -1688,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7781C58A-B9C6-4A0F-A767-3ABB164AAF92}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,7 +1536,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1735,14 +1546,14 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1750,17 +1561,17 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1768,14 +1579,14 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1783,14 +1594,14 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1798,14 +1609,14 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1813,14 +1624,14 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4">
         <v>2004</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1828,14 +1639,14 @@
         <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1843,14 +1654,14 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1858,14 +1669,14 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1873,14 +1684,14 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1888,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4">
         <v>23</v>
@@ -1898,7 +1709,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1906,17 +1717,17 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1924,17 +1735,17 @@
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1942,17 +1753,17 @@
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1960,35 +1771,35 @@
         <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E17" s="5">
         <v>38121</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1996,17 +1807,17 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2014,17 +1825,17 @@
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
@@ -2032,19 +1843,19 @@
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2067,7 +1878,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2077,14 +1888,14 @@
         <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
@@ -2092,14 +1903,14 @@
         <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -2115,565 +1926,422 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
-        <v>86</v>
+      <c r="A33" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="4">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
-      <c r="B37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>58</v>
+      <c r="D38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="3" t="s">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="18"/>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
+      <c r="B45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="5">
+        <v>23363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="14" t="s">
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19"/>
+      <c r="B51" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="28"/>
-      <c r="B47" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="D51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="H52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="23"/>
-      <c r="B53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="H53" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H53" s="3" t="s">
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
-      <c r="B54" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1963</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="C60" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23"/>
-      <c r="B55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" s="3" t="s">
+      <c r="E60" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="23"/>
-      <c r="B56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="23"/>
-      <c r="B57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="5">
-        <v>23363</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="23"/>
-      <c r="B59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="3" t="s">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="23"/>
-      <c r="B61" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="23"/>
-      <c r="B62" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="24"/>
-      <c r="B63" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-      <c r="B69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-      <c r="B71" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>138</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A52:A63"/>
+  <mergeCells count="4">
+    <mergeCell ref="A40:A51"/>
     <mergeCell ref="A3:A21"/>
-    <mergeCell ref="A33:A40"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>